--- a/data/financial_statements/sofp/DOV.xlsx
+++ b/data/financial_statements/sofp/DOV.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,144 +604,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>306002000</v>
+        <v>306000000</v>
       </c>
       <c r="C2">
-        <v>515371000</v>
+        <v>515000000</v>
       </c>
       <c r="D2">
-        <v>289984000</v>
+        <v>290000000</v>
       </c>
       <c r="E2">
-        <v>385504000</v>
+        <v>386000000</v>
       </c>
       <c r="F2">
-        <v>739144000</v>
+        <v>739000000</v>
       </c>
       <c r="G2">
         <v>601359000</v>
@@ -736,23 +847,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>1497062000</v>
+        <v>1512000000</v>
       </c>
       <c r="C3">
-        <v>1514455000</v>
+        <v>1529000000</v>
       </c>
       <c r="D3">
-        <v>1446670000</v>
+        <v>1461000000</v>
       </c>
       <c r="E3">
-        <v>1347514000</v>
+        <v>1359000000</v>
       </c>
       <c r="F3">
-        <v>1351144000</v>
+        <v>1377000000</v>
       </c>
       <c r="G3">
         <v>1329051000</v>
@@ -858,23 +969,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>1407797000</v>
+        <v>1408000000</v>
       </c>
       <c r="C4">
-        <v>1381607000</v>
+        <v>1382000000</v>
       </c>
       <c r="D4">
-        <v>1322347000</v>
+        <v>1322000000</v>
       </c>
       <c r="E4">
-        <v>1191095000</v>
+        <v>1191000000</v>
       </c>
       <c r="F4">
-        <v>1055831000</v>
+        <v>1056000000</v>
       </c>
       <c r="G4">
         <v>977831000</v>
@@ -980,8 +1091,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>152000000</v>
@@ -1027,23 +1138,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>3377045000</v>
+        <v>3377000000</v>
       </c>
       <c r="C6">
-        <v>3590996000</v>
+        <v>3591000000</v>
       </c>
       <c r="D6">
-        <v>3232484000</v>
+        <v>3232000000</v>
       </c>
       <c r="E6">
-        <v>3061709000</v>
+        <v>3062000000</v>
       </c>
       <c r="F6">
-        <v>3299415000</v>
+        <v>3299000000</v>
       </c>
       <c r="G6">
         <v>3059532000</v>
@@ -1149,23 +1260,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>958894000</v>
+        <v>959000000</v>
       </c>
       <c r="C7">
-        <v>963780000</v>
+        <v>964000000</v>
       </c>
       <c r="D7">
-        <v>960130000</v>
+        <v>960000000</v>
       </c>
       <c r="E7">
-        <v>957310000</v>
+        <v>1126000000</v>
       </c>
       <c r="F7">
-        <v>906268000</v>
+        <v>906000000</v>
       </c>
       <c r="G7">
         <v>895551000</v>
@@ -1271,23 +1382,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>5845334000</v>
+        <v>5845000000</v>
       </c>
       <c r="C8">
-        <v>5776077000</v>
+        <v>5776000000</v>
       </c>
       <c r="D8">
-        <v>5837825000</v>
+        <v>5838000000</v>
       </c>
       <c r="E8">
-        <v>5918344000</v>
+        <v>5918000000</v>
       </c>
       <c r="F8">
-        <v>5189931000</v>
+        <v>5190000000</v>
       </c>
       <c r="G8">
         <v>5175800000</v>
@@ -1393,23 +1504,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>471068000</v>
+        <v>471000000</v>
       </c>
       <c r="C9">
-        <v>476568000</v>
+        <v>477000000</v>
       </c>
       <c r="D9">
-        <v>470608000</v>
+        <v>471000000</v>
       </c>
       <c r="E9">
-        <v>466264000</v>
+        <v>264000000</v>
       </c>
       <c r="F9">
-        <v>507369000</v>
+        <v>507000000</v>
       </c>
       <c r="G9">
         <v>499117000</v>
@@ -1515,8 +1626,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>7275296000</v>
@@ -1637,23 +1748,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>10652340000</v>
+        <v>10652000000</v>
       </c>
       <c r="C11">
-        <v>10807420000</v>
+        <v>10807000000</v>
       </c>
       <c r="D11">
-        <v>10501050000</v>
+        <v>10501000000</v>
       </c>
       <c r="E11">
-        <v>10403630000</v>
+        <v>10404000000</v>
       </c>
       <c r="F11">
-        <v>9902983000</v>
+        <v>9903000000</v>
       </c>
       <c r="G11">
         <v>9630000000</v>
@@ -1759,8 +1870,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>788860000</v>
@@ -1869,23 +1980,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>1143253000</v>
+        <v>1143000000</v>
       </c>
       <c r="C13">
-        <v>1200612000</v>
+        <v>1201000000</v>
       </c>
       <c r="D13">
-        <v>1136553000</v>
+        <v>1137000000</v>
       </c>
       <c r="E13">
-        <v>1073568000</v>
+        <v>1074000000</v>
       </c>
       <c r="F13">
-        <v>1047824000</v>
+        <v>1048000000</v>
       </c>
       <c r="G13">
         <v>1006557000</v>
@@ -1991,8 +2102,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>337342000</v>
@@ -2113,8 +2224,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>789000000</v>
@@ -2145,8 +2256,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>51631000</v>
@@ -2267,8 +2378,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>246181000</v>
@@ -2299,8 +2410,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>905000000</v>
@@ -2346,23 +2457,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>2888754000</v>
+        <v>2889000000</v>
       </c>
       <c r="C19">
-        <v>2547635000</v>
+        <v>2548000000</v>
       </c>
       <c r="D19">
-        <v>2246922000</v>
+        <v>2247000000</v>
       </c>
       <c r="E19">
-        <v>2250341000</v>
+        <v>2250000000</v>
       </c>
       <c r="F19">
-        <v>2005881000</v>
+        <v>2006000000</v>
       </c>
       <c r="G19">
         <v>1901411000</v>
@@ -2468,23 +2579,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>2842662000</v>
+        <v>2843000000</v>
       </c>
       <c r="C20">
-        <v>2936124000</v>
+        <v>2936000000</v>
       </c>
       <c r="D20">
-        <v>2981922000</v>
+        <v>2982000000</v>
       </c>
       <c r="E20">
-        <v>3018714000</v>
+        <v>3160000000</v>
       </c>
       <c r="F20">
-        <v>3060184000</v>
+        <v>3060000000</v>
       </c>
       <c r="G20">
         <v>3083246000</v>
@@ -2590,8 +2701,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>21000000</v>
@@ -2631,23 +2742,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>389133000</v>
+        <v>389000000</v>
       </c>
       <c r="C22">
-        <v>366498000</v>
+        <v>366000000</v>
       </c>
       <c r="D22">
-        <v>369107000</v>
+        <v>369000000</v>
       </c>
       <c r="E22">
-        <v>364117000</v>
+        <v>411000000</v>
       </c>
       <c r="F22">
-        <v>321610000</v>
+        <v>322000000</v>
       </c>
       <c r="G22">
         <v>311496000</v>
@@ -2753,23 +2864,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>540366000</v>
+        <v>519000000</v>
       </c>
       <c r="C23">
-        <v>568641000</v>
+        <v>545000000</v>
       </c>
       <c r="D23">
-        <v>573319900</v>
+        <v>545000000</v>
       </c>
       <c r="E23">
-        <v>580927000</v>
+        <v>338000000</v>
       </c>
       <c r="F23">
-        <v>623490000</v>
+        <v>599000000</v>
       </c>
       <c r="G23">
         <v>614543000</v>
@@ -2875,8 +2986,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>3772161000</v>
@@ -2997,23 +3108,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>6660915000</v>
+        <v>6661000000</v>
       </c>
       <c r="C25">
-        <v>6418898000</v>
+        <v>6419000000</v>
       </c>
       <c r="D25">
-        <v>6171271000</v>
+        <v>6171000000</v>
       </c>
       <c r="E25">
-        <v>6214099000</v>
+        <v>6214000000</v>
       </c>
       <c r="F25">
-        <v>6011165000</v>
+        <v>6011000000</v>
       </c>
       <c r="G25">
         <v>5910696000</v>
@@ -3119,8 +3230,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>769866000</v>
@@ -3241,23 +3352,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>259606000</v>
+        <v>260000000</v>
       </c>
       <c r="C27">
-        <v>259601000</v>
+        <v>260000000</v>
       </c>
       <c r="D27">
-        <v>259573000</v>
+        <v>260000000</v>
       </c>
       <c r="E27">
-        <v>259396000</v>
+        <v>259000000</v>
       </c>
       <c r="F27">
-        <v>259396000</v>
+        <v>259000000</v>
       </c>
       <c r="G27">
         <v>259371000</v>
@@ -3363,23 +3474,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>10030410000</v>
+        <v>10030000000</v>
       </c>
       <c r="C28">
-        <v>9816960000</v>
+        <v>9817000000</v>
       </c>
       <c r="D28">
-        <v>9599195000</v>
+        <v>9599000000</v>
       </c>
       <c r="E28">
-        <v>9154512000</v>
+        <v>9445000000</v>
       </c>
       <c r="F28">
-        <v>9154512000</v>
+        <v>9155000000</v>
       </c>
       <c r="G28">
         <v>8962863000</v>
@@ -3485,8 +3596,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>6703758000</v>
@@ -3607,23 +3718,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>3991426000</v>
+        <v>3991000000</v>
       </c>
       <c r="C30">
-        <v>4388523000</v>
+        <v>4389000000</v>
       </c>
       <c r="D30">
-        <v>4329777000</v>
+        <v>4330000000</v>
       </c>
       <c r="E30">
-        <v>3891818000</v>
+        <v>4190000000</v>
       </c>
       <c r="F30">
-        <v>3891818000</v>
+        <v>3892000000</v>
       </c>
       <c r="G30">
         <v>3719304000</v>
@@ -3729,23 +3840,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>3991426000</v>
+        <v>3991000000</v>
       </c>
       <c r="C31">
-        <v>4388523000</v>
+        <v>4389000000</v>
       </c>
       <c r="D31">
-        <v>4329776000</v>
+        <v>4330000000</v>
       </c>
       <c r="E31">
-        <v>4189528000</v>
+        <v>4190000000</v>
       </c>
       <c r="F31">
-        <v>3891818000</v>
+        <v>3892000000</v>
       </c>
       <c r="G31">
         <v>3719304000</v>
@@ -3851,8 +3962,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>10652340000</v>
@@ -3973,8 +4084,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>140354000</v>
@@ -4095,8 +4206,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>-1853908000</v>
@@ -4217,23 +4328,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>3325660000</v>
+        <v>3326000000</v>
       </c>
       <c r="C35">
-        <v>2814753000</v>
+        <v>2815000000</v>
       </c>
       <c r="D35">
-        <v>2804938000</v>
+        <v>2805000000</v>
       </c>
       <c r="E35">
-        <v>2784210000</v>
+        <v>2925000000</v>
       </c>
       <c r="F35">
-        <v>2321040000</v>
+        <v>2321000000</v>
       </c>
       <c r="G35">
         <v>2481887000</v>
@@ -4339,23 +4450,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>3631662000</v>
+        <v>3632000000</v>
       </c>
       <c r="C36">
-        <v>3330124000</v>
+        <v>3330000000</v>
       </c>
       <c r="D36">
-        <v>3094922000</v>
+        <v>3095000000</v>
       </c>
       <c r="E36">
-        <v>3169714000</v>
+        <v>3311000000</v>
       </c>
       <c r="F36">
-        <v>3060184000</v>
+        <v>3060000000</v>
       </c>
       <c r="G36">
         <v>3083246000</v>
